--- a/blog/canada_overdoses/data_canada_overdoses.xlsx
+++ b/blog/canada_overdoses/data_canada_overdoses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="2" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2350,13 +2350,13 @@
         <v>2022</v>
       </c>
       <c r="D80" s="2">
-        <v>2432</v>
+        <v>2403</v>
       </c>
       <c r="E80" s="2">
-        <v>44</v>
+        <v>45.2</v>
       </c>
       <c r="F80" s="3">
-        <v>44</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2370,13 +2370,13 @@
         <v>2022</v>
       </c>
       <c r="D81" s="10">
-        <v>1499</v>
+        <v>1514</v>
       </c>
       <c r="E81" s="10">
-        <v>33</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F81" s="6">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2390,13 +2390,13 @@
         <v>2022</v>
       </c>
       <c r="D82" s="10">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="E82" s="10">
-        <v>19.7</v>
+        <v>23.8</v>
       </c>
       <c r="F82" s="6">
-        <v>20.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2430,13 +2430,13 @@
         <v>2022</v>
       </c>
       <c r="D84" s="10">
-        <v>2501</v>
+        <v>2535</v>
       </c>
       <c r="E84" s="10">
-        <v>16.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="F84" s="6">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2470,13 +2470,13 @@
         <v>2022</v>
       </c>
       <c r="D86" s="10">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E86" s="10">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="F86" s="6">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2490,13 +2490,13 @@
         <v>2022</v>
       </c>
       <c r="D87" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E87" s="10">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="F87" s="6">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2510,13 +2510,13 @@
         <v>2022</v>
       </c>
       <c r="D88" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E88" s="10">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="F88" s="6">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>2022</v>
       </c>
       <c r="D89" s="10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E89" s="10">
-        <v>4.5999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="F89" s="6">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2570,13 +2570,13 @@
         <v>2022</v>
       </c>
       <c r="D91" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91" s="10">
-        <v>6.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F91" s="6">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2590,13 +2590,13 @@
         <v>2022</v>
       </c>
       <c r="D92" s="8">
-        <v>7328</v>
+        <v>7525</v>
       </c>
       <c r="E92" s="8">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F92" s="9">
-        <v>19.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2608,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3311,7 +3311,7 @@
         <v>68</v>
       </c>
       <c r="D50">
-        <v>15.4</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3350,10 +3350,10 @@
         <v>42</v>
       </c>
       <c r="C53">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D53">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3364,10 +3364,10 @@
         <v>41</v>
       </c>
       <c r="C54">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54">
-        <v>39.4</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3378,10 +3378,10 @@
         <v>40</v>
       </c>
       <c r="C55">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D55">
-        <v>37.799999999999997</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3392,10 +3392,10 @@
         <v>39</v>
       </c>
       <c r="C56">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56">
-        <v>44.3</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3406,10 +3406,10 @@
         <v>38</v>
       </c>
       <c r="C57">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D57">
-        <v>33.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3420,10 +3420,10 @@
         <v>37</v>
       </c>
       <c r="C58">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3434,10 +3434,10 @@
         <v>36</v>
       </c>
       <c r="C59">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3448,10 +3448,10 @@
         <v>35</v>
       </c>
       <c r="C60">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D60">
-        <v>35.9</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3462,10 +3462,10 @@
         <v>34</v>
       </c>
       <c r="C61">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D61">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3476,10 +3476,10 @@
         <v>45</v>
       </c>
       <c r="C62">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3490,10 +3490,10 @@
         <v>44</v>
       </c>
       <c r="C63">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D63">
-        <v>32.1</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3504,10 +3504,10 @@
         <v>43</v>
       </c>
       <c r="C64">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D64">
-        <v>37.299999999999997</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3518,10 +3518,10 @@
         <v>42</v>
       </c>
       <c r="C65">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3532,10 +3532,10 @@
         <v>41</v>
       </c>
       <c r="C66">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D66">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3546,10 +3546,10 @@
         <v>40</v>
       </c>
       <c r="C67">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D67">
-        <v>40.200000000000003</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3560,10 +3560,10 @@
         <v>39</v>
       </c>
       <c r="C68">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D68">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3574,10 +3574,10 @@
         <v>38</v>
       </c>
       <c r="C69">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D69">
-        <v>39.700000000000003</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3588,10 +3588,10 @@
         <v>37</v>
       </c>
       <c r="C70">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D70">
-        <v>47</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3602,10 +3602,10 @@
         <v>36</v>
       </c>
       <c r="C71">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D71">
-        <v>47</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3616,10 +3616,10 @@
         <v>35</v>
       </c>
       <c r="C72">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D72">
-        <v>51.6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3630,10 +3630,10 @@
         <v>34</v>
       </c>
       <c r="C73">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D73">
-        <v>50.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3644,10 +3644,10 @@
         <v>45</v>
       </c>
       <c r="C74">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D74">
-        <v>45.7</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3658,10 +3658,10 @@
         <v>44</v>
       </c>
       <c r="C75">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D75">
-        <v>48.9</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3672,10 +3672,10 @@
         <v>43</v>
       </c>
       <c r="C76">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D76">
-        <v>36.200000000000003</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3686,10 +3686,10 @@
         <v>42</v>
       </c>
       <c r="C77">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D77">
-        <v>36.200000000000003</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3700,10 +3700,10 @@
         <v>41</v>
       </c>
       <c r="C78">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D78">
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3714,10 +3714,10 @@
         <v>40</v>
       </c>
       <c r="C79">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>32.200000000000003</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3728,10 +3728,10 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D80">
-        <v>31.4</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3742,10 +3742,10 @@
         <v>38</v>
       </c>
       <c r="C81">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D81">
-        <v>30.6</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3756,10 +3756,10 @@
         <v>37</v>
       </c>
       <c r="C82">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D82">
-        <v>34.1</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3770,10 +3770,10 @@
         <v>36</v>
       </c>
       <c r="C83">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D83">
-        <v>37.799999999999997</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3784,10 +3784,10 @@
         <v>35</v>
       </c>
       <c r="C84">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D84">
-        <v>34.299999999999997</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3798,10 +3798,10 @@
         <v>34</v>
       </c>
       <c r="C85">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D85">
-        <v>41.7</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3812,10 +3812,10 @@
         <v>45</v>
       </c>
       <c r="C86">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D86">
-        <v>31.5</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3826,10 +3826,10 @@
         <v>44</v>
       </c>
       <c r="C87">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D87">
-        <v>40.4</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3840,10 +3840,10 @@
         <v>43</v>
       </c>
       <c r="C88">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D88">
-        <v>45.1</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3854,10 +3854,10 @@
         <v>42</v>
       </c>
       <c r="C89">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D89">
-        <v>46.9</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3867,6 +3867,12 @@
       <c r="B90" t="s">
         <v>41</v>
       </c>
+      <c r="C90">
+        <v>174</v>
+      </c>
+      <c r="D90">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
@@ -3875,6 +3881,12 @@
       <c r="B91" t="s">
         <v>40</v>
       </c>
+      <c r="C91">
+        <v>183</v>
+      </c>
+      <c r="D91">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
@@ -3883,6 +3895,12 @@
       <c r="B92" t="s">
         <v>39</v>
       </c>
+      <c r="C92">
+        <v>187</v>
+      </c>
+      <c r="D92">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
@@ -3891,6 +3909,12 @@
       <c r="B93" t="s">
         <v>38</v>
       </c>
+      <c r="C93">
+        <v>178</v>
+      </c>
+      <c r="D93">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
@@ -3899,6 +3923,12 @@
       <c r="B94" t="s">
         <v>37</v>
       </c>
+      <c r="C94">
+        <v>158</v>
+      </c>
+      <c r="D94">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
@@ -3907,6 +3937,12 @@
       <c r="B95" t="s">
         <v>36</v>
       </c>
+      <c r="C95">
+        <v>158</v>
+      </c>
+      <c r="D95">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
@@ -3915,13 +3951,25 @@
       <c r="B96" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>152</v>
+      </c>
+      <c r="D96">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2023</v>
       </c>
       <c r="B97" t="s">
         <v>34</v>
+      </c>
+      <c r="C97">
+        <v>164</v>
+      </c>
+      <c r="D97">
+        <v>41.9</v>
       </c>
     </row>
   </sheetData>
@@ -3931,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4164,10 +4212,10 @@
         <v>2014</v>
       </c>
       <c r="B21">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4186,7 +4234,7 @@
         <v>2016</v>
       </c>
       <c r="B23">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C23">
         <v>20.5</v>
@@ -4208,10 +4256,10 @@
         <v>2018</v>
       </c>
       <c r="B25">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C25">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4219,7 +4267,7 @@
         <v>2019</v>
       </c>
       <c r="B26">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C26">
         <v>19.399999999999999</v>
@@ -4230,10 +4278,10 @@
         <v>2020</v>
       </c>
       <c r="B27">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C27">
-        <v>34.4</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4241,10 +4289,10 @@
         <v>2021</v>
       </c>
       <c r="B28">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C28">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4252,10 +4300,21 @@
         <v>2022</v>
       </c>
       <c r="B29">
-        <v>2272</v>
+        <v>2385</v>
       </c>
       <c r="C29">
-        <v>42.7</v>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>2551</v>
+      </c>
+      <c r="C30">
+        <v>46.2</v>
       </c>
     </row>
   </sheetData>
@@ -4265,15 +4324,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4313,8 +4372,11 @@
       <c r="M1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4334,7 +4396,7 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>148</v>
@@ -4346,16 +4408,19 @@
         <v>94</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="N2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4378,25 +4443,28 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3">
         <v>108</v>
       </c>
       <c r="J3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>79</v>
       </c>
       <c r="L3">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>204</v>
+      </c>
+      <c r="N3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4422,22 +4490,25 @@
         <v>130</v>
       </c>
       <c r="I4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="N4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4469,16 +4540,19 @@
         <v>83</v>
       </c>
       <c r="K5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L5">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M5">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>176</v>
+      </c>
+      <c r="N5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4507,19 +4581,22 @@
         <v>118</v>
       </c>
       <c r="J6">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>214</v>
+      </c>
+      <c r="N6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4539,7 +4616,7 @@
         <v>34</v>
       </c>
       <c r="G7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7">
         <v>129</v>
@@ -4551,16 +4628,19 @@
         <v>75</v>
       </c>
       <c r="K7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M7">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>156</v>
+      </c>
+      <c r="N7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -4574,7 +4654,7 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -4592,16 +4672,19 @@
         <v>72</v>
       </c>
       <c r="K8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>204</v>
+      </c>
+      <c r="N8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4627,22 +4710,25 @@
         <v>127</v>
       </c>
       <c r="I9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M9">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>192</v>
+      </c>
+      <c r="N9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -4674,16 +4760,19 @@
         <v>63</v>
       </c>
       <c r="K10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10">
         <v>164</v>
       </c>
       <c r="M10">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>194</v>
+      </c>
+      <c r="N10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4709,22 +4798,25 @@
         <v>98</v>
       </c>
       <c r="I11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11">
         <v>79</v>
       </c>
       <c r="K11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M11">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="N11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4747,7 +4839,7 @@
         <v>140</v>
       </c>
       <c r="H12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12">
         <v>131</v>
@@ -4759,13 +4851,16 @@
         <v>168</v>
       </c>
       <c r="L12">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M12">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>203</v>
+      </c>
+      <c r="N12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -4797,13 +4892,16 @@
         <v>62</v>
       </c>
       <c r="K13">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L13">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M13">
-        <v>210</v>
+        <v>231</v>
+      </c>
+      <c r="N13">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4813,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4873,7 +4971,7 @@
         <v>86</v>
       </c>
       <c r="C5">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4892,10 +4990,10 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4914,7 +5012,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9">
         <v>1246</v>
@@ -4925,10 +5023,10 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4936,10 +5034,10 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C11">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4947,7 +5045,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C12">
         <v>1799</v>
@@ -4958,10 +5056,21 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="C13">
-        <v>1784</v>
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14">
+        <v>575</v>
+      </c>
+      <c r="C14">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -4971,15 +5080,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5019,8 +5128,11 @@
       <c r="M1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5040,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -5058,10 +5170,13 @@
         <v>31</v>
       </c>
       <c r="M2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5084,25 +5199,28 @@
         <v>204</v>
       </c>
       <c r="H3">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I3">
         <v>302</v>
       </c>
       <c r="J3">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K3">
         <v>309</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M3">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>339</v>
+      </c>
+      <c r="N3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -5116,34 +5234,37 @@
         <v>77</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>137</v>
       </c>
       <c r="G4">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H4">
         <v>400</v>
       </c>
       <c r="I4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L4">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M4">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>564</v>
+      </c>
+      <c r="N4">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5169,22 +5290,25 @@
         <v>355</v>
       </c>
       <c r="I5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J5">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K5">
         <v>411</v>
       </c>
       <c r="L5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M5">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>529</v>
+      </c>
+      <c r="N5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5207,25 +5331,28 @@
         <v>230</v>
       </c>
       <c r="H6">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I6">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J6">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K6">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L6">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M6">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>575</v>
+      </c>
+      <c r="N6">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5254,19 +5381,22 @@
         <v>127</v>
       </c>
       <c r="J7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>197</v>
       </c>
       <c r="L7">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M7">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>304</v>
+      </c>
+      <c r="N7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5304,7 +5434,10 @@
         <v>32</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +5450,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5528,10 +5661,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5613,7 +5746,7 @@
         <v>2021</v>
       </c>
       <c r="B10">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5621,7 +5754,15 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>153</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5631,10 +5772,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5643,7 +5784,7 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
@@ -5689,8 +5830,11 @@
       <c r="O1" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -5736,8 +5880,11 @@
       <c r="O2" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -5781,10 +5928,13 @@
         <v>3</v>
       </c>
       <c r="O3" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>5</v>
+      </c>
+      <c r="P3" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -5828,10 +5978,13 @@
         <v>35</v>
       </c>
       <c r="O4" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P4" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -5875,10 +6028,13 @@
         <v>29</v>
       </c>
       <c r="O5" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P5" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -5922,10 +6078,13 @@
         <v>18</v>
       </c>
       <c r="O6" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P6" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -5969,10 +6128,13 @@
         <v>14</v>
       </c>
       <c r="O7" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -6018,8 +6180,11 @@
       <c r="O8" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -6063,10 +6228,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
@@ -6112,8 +6280,11 @@
       <c r="O10" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -6159,8 +6330,11 @@
       <c r="O11" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -6204,10 +6378,13 @@
         <v>1</v>
       </c>
       <c r="O12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -6251,10 +6428,13 @@
         <v>38</v>
       </c>
       <c r="O13" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P13" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -6298,10 +6478,13 @@
         <v>46</v>
       </c>
       <c r="O14" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P14" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -6345,10 +6528,13 @@
         <v>59</v>
       </c>
       <c r="O15" s="13">
+        <v>58</v>
+      </c>
+      <c r="P15" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -6392,10 +6578,13 @@
         <v>47</v>
       </c>
       <c r="O16" s="13">
+        <v>36</v>
+      </c>
+      <c r="P16" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -6439,10 +6628,13 @@
         <v>14</v>
       </c>
       <c r="O17" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6488,8 +6680,11 @@
       <c r="O18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -6533,6 +6728,9 @@
         <v>0</v>
       </c>
       <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6543,10 +6741,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6555,7 +6753,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
@@ -6601,8 +6799,12 @@
       <c r="O1" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -6646,10 +6848,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P2" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -6693,10 +6898,13 @@
         <v>71</v>
       </c>
       <c r="O3" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="P3" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -6742,8 +6950,11 @@
       <c r="O4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -6789,8 +7000,11 @@
       <c r="O5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -6836,8 +7050,11 @@
       <c r="O6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -6881,10 +7098,13 @@
         <v>3</v>
       </c>
       <c r="O7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -6928,10 +7148,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -6977,8 +7200,11 @@
       <c r="O9" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -7022,10 +7248,13 @@
         <v>95</v>
       </c>
       <c r="O10" s="16">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>75</v>
+      </c>
+      <c r="P10" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -7066,13 +7295,16 @@
         <v>78</v>
       </c>
       <c r="N11" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>90</v>
+      </c>
+      <c r="P11" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -7115,9 +7347,14 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -7163,8 +7400,11 @@
       <c r="O13" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -7210,8 +7450,11 @@
       <c r="O14" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -7257,8 +7500,11 @@
       <c r="O15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -7304,8 +7550,11 @@
       <c r="O16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -7349,7 +7598,10 @@
         <v>12</v>
       </c>
       <c r="O17" s="11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="P17" s="10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/blog/canada_overdoses/data_canada_overdoses.xlsx
+++ b/blog/canada_overdoses/data_canada_overdoses.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Canada" sheetId="2" r:id="rId1"/>
-    <sheet name="BC Annual" sheetId="4" r:id="rId2"/>
-    <sheet name="BC Monthly" sheetId="5" r:id="rId3"/>
-    <sheet name="BC Sex" sheetId="6" r:id="rId4"/>
-    <sheet name="BC Age" sheetId="7" r:id="rId5"/>
-    <sheet name="SK Annual" sheetId="8" r:id="rId6"/>
-    <sheet name="SK Meth" sheetId="9" r:id="rId7"/>
-    <sheet name="SK Age" sheetId="10" r:id="rId8"/>
-    <sheet name="SK Race" sheetId="11" r:id="rId9"/>
-    <sheet name="AB Monthly" sheetId="12" r:id="rId10"/>
+    <sheet name="BC Annual" sheetId="4" r:id="rId1"/>
+    <sheet name="BC Monthly" sheetId="5" r:id="rId2"/>
+    <sheet name="BC Sex" sheetId="6" r:id="rId3"/>
+    <sheet name="BC Age" sheetId="7" r:id="rId4"/>
+    <sheet name="SK Annual" sheetId="8" r:id="rId5"/>
+    <sheet name="SK Meth" sheetId="9" r:id="rId6"/>
+    <sheet name="SK Age" sheetId="10" r:id="rId7"/>
+    <sheet name="SK Race" sheetId="11" r:id="rId8"/>
+    <sheet name="AB Monthly" sheetId="12" r:id="rId9"/>
+    <sheet name="Canada" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -743,10 +743,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>217</v>
+      </c>
+      <c r="C2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>301</v>
+      </c>
+      <c r="C3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>272</v>
+      </c>
+      <c r="C6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>236</v>
+      </c>
+      <c r="C8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>190</v>
+      </c>
+      <c r="C10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>230</v>
+      </c>
+      <c r="C12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+      <c r="C14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="C15">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>201</v>
+      </c>
+      <c r="C16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>295</v>
+      </c>
+      <c r="C18">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>334</v>
+      </c>
+      <c r="C20">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>370</v>
+      </c>
+      <c r="C21">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>529</v>
+      </c>
+      <c r="C22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>997</v>
+      </c>
+      <c r="C23">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>1496</v>
+      </c>
+      <c r="C24">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>1562</v>
+      </c>
+      <c r="C25">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>991</v>
+      </c>
+      <c r="C26">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>1776</v>
+      </c>
+      <c r="C27">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>2293</v>
+      </c>
+      <c r="C28">
+        <v>463.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>2382</v>
+      </c>
+      <c r="C29">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>2574</v>
+      </c>
+      <c r="C30">
+        <v>46.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2604,1372 +2949,616 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+      <c r="N1">
+        <v>2023</v>
+      </c>
+      <c r="O1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>86</v>
+      </c>
+      <c r="H2">
+        <v>148</v>
+      </c>
+      <c r="I2">
+        <v>134</v>
+      </c>
+      <c r="J2">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>79</v>
+      </c>
+      <c r="L2">
+        <v>188</v>
+      </c>
+      <c r="M2">
+        <v>217</v>
+      </c>
+      <c r="N2">
+        <v>228</v>
+      </c>
+      <c r="O2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>125</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
+      <c r="J3">
+        <v>85</v>
+      </c>
+      <c r="K3">
+        <v>79</v>
+      </c>
+      <c r="L3">
+        <v>175</v>
+      </c>
+      <c r="M3">
+        <v>203</v>
+      </c>
+      <c r="N3">
+        <v>196</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2016</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>54</v>
-      </c>
-      <c r="D2">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2016</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2016</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>158</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <v>173</v>
+      </c>
+      <c r="M4">
+        <v>185</v>
+      </c>
+      <c r="N4">
+        <v>215</v>
+      </c>
+      <c r="O4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
       <c r="C5">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2016</v>
-      </c>
-      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>155</v>
+      </c>
+      <c r="I5">
+        <v>136</v>
+      </c>
+      <c r="J5">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <v>130</v>
+      </c>
+      <c r="L5">
+        <v>188</v>
+      </c>
+      <c r="M5">
+        <v>176</v>
+      </c>
+      <c r="N5">
+        <v>240</v>
+      </c>
+      <c r="O5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
       <c r="C6">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>40</v>
       </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>149</v>
+      </c>
+      <c r="I6">
+        <v>118</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>176</v>
+      </c>
+      <c r="L6">
+        <v>174</v>
+      </c>
+      <c r="M6">
+        <v>214</v>
+      </c>
+      <c r="N6">
+        <v>198</v>
+      </c>
+      <c r="O6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
       <c r="C7">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>129</v>
+      </c>
+      <c r="I7">
+        <v>116</v>
+      </c>
+      <c r="J7">
+        <v>75</v>
+      </c>
+      <c r="K7">
+        <v>189</v>
+      </c>
+      <c r="L7">
+        <v>178</v>
+      </c>
+      <c r="M7">
+        <v>156</v>
+      </c>
+      <c r="N7">
+        <v>202</v>
+      </c>
+      <c r="O7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
       <c r="C8">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="H8">
+        <v>122</v>
+      </c>
+      <c r="I8">
+        <v>151</v>
+      </c>
+      <c r="J8">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>187</v>
+      </c>
+      <c r="L8">
+        <v>197</v>
+      </c>
+      <c r="M8">
+        <v>203</v>
+      </c>
+      <c r="N8">
+        <v>226</v>
+      </c>
+      <c r="O8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
       <c r="C9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2016</v>
-      </c>
-      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
         <v>37</v>
       </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>127</v>
+      </c>
+      <c r="I9">
+        <v>126</v>
+      </c>
+      <c r="J9">
+        <v>83</v>
+      </c>
+      <c r="K9">
+        <v>163</v>
+      </c>
+      <c r="L9">
+        <v>202</v>
+      </c>
+      <c r="M9">
+        <v>191</v>
+      </c>
+      <c r="N9">
+        <v>199</v>
+      </c>
+      <c r="O9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
       <c r="C10">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>2016</v>
-      </c>
-      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <v>97</v>
+      </c>
+      <c r="I10">
+        <v>138</v>
+      </c>
+      <c r="J10">
+        <v>63</v>
+      </c>
+      <c r="K10">
+        <v>143</v>
+      </c>
+      <c r="L10">
+        <v>161</v>
+      </c>
+      <c r="M10">
+        <v>192</v>
+      </c>
+      <c r="N10">
+        <v>191</v>
+      </c>
+      <c r="O10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
       <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>53</v>
       </c>
-      <c r="D11">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G11">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>98</v>
+      </c>
+      <c r="I11">
+        <v>118</v>
+      </c>
+      <c r="J11">
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <v>174</v>
+      </c>
+      <c r="L11">
+        <v>213</v>
+      </c>
+      <c r="M11">
+        <v>209</v>
+      </c>
+      <c r="N11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
       <c r="C12">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>2016</v>
-      </c>
-      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>140</v>
+      </c>
+      <c r="H12">
+        <v>111</v>
+      </c>
+      <c r="I12">
+        <v>131</v>
+      </c>
+      <c r="J12">
+        <v>81</v>
+      </c>
+      <c r="K12">
+        <v>169</v>
+      </c>
+      <c r="L12">
+        <v>215</v>
+      </c>
+      <c r="M12">
+        <v>202</v>
+      </c>
+      <c r="N12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
       <c r="C13">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>2017</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>71</v>
-      </c>
-      <c r="D16">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>2017</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>2017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>2017</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>61</v>
-      </c>
-      <c r="D19">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>79</v>
-      </c>
-      <c r="D20">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
-        <v>63</v>
-      </c>
-      <c r="D21">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>2017</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>75</v>
-      </c>
-      <c r="D22">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23">
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="D23">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>82</v>
-      </c>
-      <c r="D24">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>103</v>
-      </c>
-      <c r="D25">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>2018</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <v>77</v>
-      </c>
-      <c r="D26">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>2018</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>73</v>
-      </c>
-      <c r="D27">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28">
-        <v>77</v>
-      </c>
-      <c r="D28">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>2018</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <v>76</v>
-      </c>
-      <c r="D29">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>2018</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>102</v>
-      </c>
-      <c r="D30">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>2018</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>2018</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>88</v>
-      </c>
-      <c r="D33">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>2018</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>73</v>
-      </c>
-      <c r="D34">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>2018</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>73</v>
-      </c>
-      <c r="D35">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>2018</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>74</v>
-      </c>
-      <c r="D36">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>2018</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <v>90</v>
-      </c>
-      <c r="D37">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>2019</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38">
-        <v>73</v>
-      </c>
-      <c r="D38">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>2019</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>64</v>
-      </c>
-      <c r="D39">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>2019</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>67</v>
-      </c>
-      <c r="D40">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>2019</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>65</v>
-      </c>
-      <c r="D41">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>2019</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>75</v>
-      </c>
-      <c r="D42">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>2019</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>2019</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44">
-        <v>83</v>
-      </c>
-      <c r="D44">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>2019</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>2019</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46">
-        <v>72</v>
-      </c>
-      <c r="D46">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>2019</v>
-      </c>
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47">
-        <v>56</v>
-      </c>
-      <c r="D47">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>2019</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>2019</v>
-      </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49">
-        <v>50</v>
-      </c>
-      <c r="D49">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>2020</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50">
-        <v>68</v>
-      </c>
-      <c r="D50">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>2020</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51">
-        <v>57</v>
-      </c>
-      <c r="D51">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>2020</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52">
-        <v>83</v>
-      </c>
-      <c r="D52">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>2020</v>
-      </c>
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53">
-        <v>101</v>
-      </c>
-      <c r="D53">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>2020</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54">
-        <v>146</v>
-      </c>
-      <c r="D54">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>2020</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55">
-        <v>142</v>
-      </c>
-      <c r="D55">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>2020</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56">
-        <v>165</v>
-      </c>
-      <c r="D56">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>2020</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>125</v>
-      </c>
-      <c r="D57">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>2020</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58">
-        <v>123</v>
-      </c>
-      <c r="D58">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>2020</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59">
-        <v>119</v>
-      </c>
-      <c r="D59">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>2020</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60">
-        <v>133</v>
-      </c>
-      <c r="D60">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>2020</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61">
-        <v>143</v>
-      </c>
-      <c r="D61">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>2021</v>
-      </c>
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62">
-        <v>150</v>
-      </c>
-      <c r="D62">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>2021</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63">
-        <v>121</v>
-      </c>
-      <c r="D63">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>2021</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64">
-        <v>142</v>
-      </c>
-      <c r="D64">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>2021</v>
-      </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65">
-        <v>139</v>
-      </c>
-      <c r="D65">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>2021</v>
-      </c>
-      <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66">
-        <v>148</v>
-      </c>
-      <c r="D66">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>2021</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>152</v>
-      </c>
-      <c r="D67">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>2021</v>
-      </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68">
-        <v>148</v>
-      </c>
-      <c r="D68">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>2021</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69">
-        <v>149</v>
-      </c>
-      <c r="D69">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>2021</v>
-      </c>
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70">
-        <v>176</v>
-      </c>
-      <c r="D70">
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>2021</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71">
-        <v>176</v>
-      </c>
-      <c r="D71">
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>2021</v>
-      </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72">
-        <v>192</v>
-      </c>
-      <c r="D72">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>2021</v>
-      </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73">
-        <v>192</v>
-      </c>
-      <c r="D73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>2022</v>
-      </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74">
-        <v>178</v>
-      </c>
-      <c r="D74">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>2022</v>
-      </c>
-      <c r="B75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75">
-        <v>187</v>
-      </c>
-      <c r="D75">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>2022</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76">
-        <v>142</v>
-      </c>
-      <c r="D76">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>2022</v>
-      </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77">
-        <v>138</v>
-      </c>
-      <c r="D77">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>2022</v>
-      </c>
-      <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78">
-        <v>141</v>
-      </c>
-      <c r="D78">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>2022</v>
-      </c>
-      <c r="B79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79">
-        <v>125</v>
-      </c>
-      <c r="D79">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>2022</v>
-      </c>
-      <c r="B80" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80">
-        <v>125</v>
-      </c>
-      <c r="D80">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>2022</v>
-      </c>
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81">
-        <v>126</v>
-      </c>
-      <c r="D81">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>2022</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <v>140</v>
-      </c>
-      <c r="D82">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>2022</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83">
-        <v>147</v>
-      </c>
-      <c r="D83">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>2022</v>
-      </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84">
-        <v>140</v>
-      </c>
-      <c r="D84">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>2022</v>
-      </c>
-      <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85">
-        <v>170</v>
-      </c>
-      <c r="D85">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>2023</v>
-      </c>
-      <c r="B86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86">
-        <v>138</v>
-      </c>
-      <c r="D86">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>2023</v>
-      </c>
-      <c r="B87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87">
-        <v>171</v>
-      </c>
-      <c r="D87">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>2023</v>
-      </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88">
-        <v>190</v>
-      </c>
-      <c r="D88">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>2023</v>
-      </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89">
-        <v>198</v>
-      </c>
-      <c r="D89">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>2023</v>
-      </c>
-      <c r="B90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90">
-        <v>174</v>
-      </c>
-      <c r="D90">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>2023</v>
-      </c>
-      <c r="B91" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91">
-        <v>183</v>
-      </c>
-      <c r="D91">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>2023</v>
-      </c>
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92">
-        <v>187</v>
-      </c>
-      <c r="D92">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>2023</v>
-      </c>
-      <c r="B93" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93">
-        <v>178</v>
-      </c>
-      <c r="D93">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>2023</v>
-      </c>
-      <c r="B94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94">
-        <v>158</v>
-      </c>
-      <c r="D94">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>2023</v>
-      </c>
-      <c r="B95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95">
-        <v>158</v>
-      </c>
-      <c r="D95">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>2023</v>
-      </c>
-      <c r="B96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96">
-        <v>152</v>
-      </c>
-      <c r="D96">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>2023</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97">
-        <v>164</v>
-      </c>
-      <c r="D97">
-        <v>41.9</v>
+      <c r="G13">
+        <v>161</v>
+      </c>
+      <c r="H13">
+        <v>104</v>
+      </c>
+      <c r="I13">
+        <v>127</v>
+      </c>
+      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <v>167</v>
+      </c>
+      <c r="L13">
+        <v>229</v>
+      </c>
+      <c r="M13">
+        <v>234</v>
+      </c>
+      <c r="N13">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3977,12 +3566,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3992,916 +3581,164 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C10">
-        <v>4.5999999999999996</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="C11">
-        <v>4.4000000000000004</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>230</v>
+        <v>503</v>
       </c>
       <c r="C12">
-        <v>5.5</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>229</v>
+        <v>519</v>
       </c>
       <c r="C13">
-        <v>5.4</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>579</v>
       </c>
       <c r="C14">
-        <v>4.7</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="B15">
-        <v>183</v>
+        <v>491</v>
       </c>
       <c r="C15">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2009</v>
-      </c>
-      <c r="B16">
-        <v>201</v>
-      </c>
-      <c r="C16">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17">
-        <v>211</v>
-      </c>
-      <c r="C17">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2011</v>
-      </c>
-      <c r="B18">
-        <v>295</v>
-      </c>
-      <c r="C18">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2012</v>
-      </c>
-      <c r="B19">
-        <v>270</v>
-      </c>
-      <c r="C19">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2013</v>
-      </c>
-      <c r="B20">
-        <v>334</v>
-      </c>
-      <c r="C20">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2014</v>
-      </c>
-      <c r="B21">
-        <v>370</v>
-      </c>
-      <c r="C21">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2015</v>
-      </c>
-      <c r="B22">
-        <v>529</v>
-      </c>
-      <c r="C22">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>2016</v>
-      </c>
-      <c r="B23">
-        <v>996</v>
-      </c>
-      <c r="C23">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24">
-        <v>1495</v>
-      </c>
-      <c r="C24">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>2018</v>
-      </c>
-      <c r="B25">
-        <v>1561</v>
-      </c>
-      <c r="C25">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>2019</v>
-      </c>
-      <c r="B26">
-        <v>990</v>
-      </c>
-      <c r="C26">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>2020</v>
-      </c>
-      <c r="B27">
-        <v>1775</v>
-      </c>
-      <c r="C27">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>2021</v>
-      </c>
-      <c r="B28">
-        <v>2304</v>
-      </c>
-      <c r="C28">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>2022</v>
-      </c>
-      <c r="B29">
-        <v>2385</v>
-      </c>
-      <c r="C29">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>2023</v>
-      </c>
-      <c r="B30">
-        <v>2551</v>
-      </c>
-      <c r="C30">
-        <v>46.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1">
-        <v>2011</v>
-      </c>
-      <c r="C1">
-        <v>2012</v>
-      </c>
-      <c r="D1">
-        <v>2013</v>
-      </c>
-      <c r="E1">
-        <v>2014</v>
-      </c>
-      <c r="F1">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2016</v>
-      </c>
-      <c r="H1">
-        <v>2017</v>
-      </c>
-      <c r="I1">
-        <v>2018</v>
-      </c>
-      <c r="J1">
-        <v>2019</v>
-      </c>
-      <c r="K1">
-        <v>2020</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
-      </c>
-      <c r="M1">
-        <v>2022</v>
-      </c>
-      <c r="N1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>86</v>
-      </c>
-      <c r="H2">
-        <v>148</v>
-      </c>
-      <c r="I2">
-        <v>134</v>
-      </c>
-      <c r="J2">
-        <v>94</v>
-      </c>
-      <c r="K2">
-        <v>79</v>
-      </c>
-      <c r="L2">
-        <v>189</v>
-      </c>
-      <c r="M2">
-        <v>217</v>
-      </c>
-      <c r="N2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>58</v>
-      </c>
-      <c r="H3">
-        <v>125</v>
-      </c>
-      <c r="I3">
-        <v>108</v>
-      </c>
-      <c r="J3">
-        <v>85</v>
-      </c>
-      <c r="K3">
-        <v>79</v>
-      </c>
-      <c r="L3">
-        <v>175</v>
-      </c>
-      <c r="M3">
-        <v>204</v>
-      </c>
-      <c r="N3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>76</v>
-      </c>
-      <c r="H4">
-        <v>130</v>
-      </c>
-      <c r="I4">
-        <v>158</v>
-      </c>
-      <c r="J4">
-        <v>120</v>
-      </c>
-      <c r="K4">
-        <v>120</v>
-      </c>
-      <c r="L4">
-        <v>174</v>
-      </c>
-      <c r="M4">
-        <v>185</v>
-      </c>
-      <c r="N4">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>73</v>
-      </c>
-      <c r="H5">
-        <v>155</v>
-      </c>
-      <c r="I5">
-        <v>136</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <v>130</v>
-      </c>
-      <c r="L5">
-        <v>189</v>
-      </c>
-      <c r="M5">
-        <v>176</v>
-      </c>
-      <c r="N5">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>51</v>
-      </c>
-      <c r="H6">
-        <v>149</v>
-      </c>
-      <c r="I6">
-        <v>118</v>
-      </c>
-      <c r="J6">
-        <v>93</v>
-      </c>
-      <c r="K6">
-        <v>177</v>
-      </c>
-      <c r="L6">
-        <v>173</v>
-      </c>
-      <c r="M6">
-        <v>214</v>
-      </c>
-      <c r="N6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>72</v>
-      </c>
-      <c r="H7">
-        <v>129</v>
-      </c>
-      <c r="I7">
-        <v>116</v>
-      </c>
-      <c r="J7">
-        <v>75</v>
-      </c>
-      <c r="K7">
-        <v>189</v>
-      </c>
-      <c r="L7">
-        <v>178</v>
-      </c>
-      <c r="M7">
-        <v>156</v>
-      </c>
-      <c r="N7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>74</v>
-      </c>
-      <c r="H8">
-        <v>122</v>
-      </c>
-      <c r="I8">
-        <v>151</v>
-      </c>
-      <c r="J8">
-        <v>72</v>
-      </c>
-      <c r="K8">
-        <v>186</v>
-      </c>
-      <c r="L8">
-        <v>202</v>
-      </c>
-      <c r="M8">
-        <v>204</v>
-      </c>
-      <c r="N8">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>53</v>
-      </c>
-      <c r="G9">
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <v>127</v>
-      </c>
-      <c r="I9">
-        <v>126</v>
-      </c>
-      <c r="J9">
-        <v>83</v>
-      </c>
-      <c r="K9">
-        <v>164</v>
-      </c>
-      <c r="L9">
-        <v>201</v>
-      </c>
-      <c r="M9">
-        <v>192</v>
-      </c>
-      <c r="N9">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>63</v>
-      </c>
-      <c r="H10">
-        <v>97</v>
-      </c>
-      <c r="I10">
-        <v>138</v>
-      </c>
-      <c r="J10">
-        <v>63</v>
-      </c>
-      <c r="K10">
-        <v>143</v>
-      </c>
-      <c r="L10">
-        <v>164</v>
-      </c>
-      <c r="M10">
-        <v>194</v>
-      </c>
-      <c r="N10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>35</v>
-      </c>
-      <c r="F11">
-        <v>53</v>
-      </c>
-      <c r="G11">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>98</v>
-      </c>
-      <c r="I11">
-        <v>118</v>
-      </c>
-      <c r="J11">
-        <v>79</v>
-      </c>
-      <c r="K11">
-        <v>174</v>
-      </c>
-      <c r="L11">
-        <v>215</v>
-      </c>
-      <c r="M11">
-        <v>209</v>
-      </c>
-      <c r="N11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>140</v>
-      </c>
-      <c r="H12">
-        <v>111</v>
-      </c>
-      <c r="I12">
-        <v>131</v>
-      </c>
-      <c r="J12">
-        <v>81</v>
-      </c>
-      <c r="K12">
-        <v>168</v>
-      </c>
-      <c r="L12">
-        <v>215</v>
-      </c>
-      <c r="M12">
-        <v>203</v>
-      </c>
-      <c r="N12">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>66</v>
-      </c>
-      <c r="G13">
-        <v>161</v>
-      </c>
-      <c r="H13">
-        <v>104</v>
-      </c>
-      <c r="I13">
-        <v>127</v>
-      </c>
-      <c r="J13">
-        <v>62</v>
-      </c>
-      <c r="K13">
-        <v>166</v>
-      </c>
-      <c r="L13">
-        <v>229</v>
-      </c>
-      <c r="M13">
-        <v>231</v>
-      </c>
-      <c r="N13">
-        <v>229</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
@@ -4911,166 +3748,364 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+      <c r="N1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>204</v>
+      </c>
+      <c r="H3">
+        <v>271</v>
+      </c>
+      <c r="I3">
+        <v>302</v>
+      </c>
+      <c r="J3">
+        <v>172</v>
+      </c>
+      <c r="K3">
+        <v>309</v>
+      </c>
+      <c r="L3">
+        <v>327</v>
+      </c>
+      <c r="M3">
+        <v>339</v>
+      </c>
+      <c r="N3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>137</v>
+      </c>
+      <c r="G4">
+        <v>262</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>396</v>
+      </c>
+      <c r="J4">
+        <v>273</v>
+      </c>
+      <c r="K4">
+        <v>413</v>
+      </c>
+      <c r="L4">
+        <v>543</v>
+      </c>
+      <c r="M4">
+        <v>564</v>
+      </c>
+      <c r="N4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>234</v>
+      </c>
+      <c r="H5">
+        <v>355</v>
+      </c>
+      <c r="I5">
+        <v>346</v>
+      </c>
+      <c r="J5">
+        <v>221</v>
+      </c>
+      <c r="K5">
+        <v>411</v>
+      </c>
+      <c r="L5">
+        <v>504</v>
+      </c>
+      <c r="M5">
+        <v>529</v>
+      </c>
+      <c r="N5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>230</v>
+      </c>
+      <c r="H6">
+        <v>315</v>
+      </c>
+      <c r="I6">
+        <v>364</v>
+      </c>
+      <c r="J6">
+        <v>216</v>
+      </c>
+      <c r="K6">
+        <v>410</v>
+      </c>
+      <c r="L6">
+        <v>595</v>
+      </c>
+      <c r="M6">
+        <v>575</v>
+      </c>
+      <c r="N6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>121</v>
+      </c>
+      <c r="I7">
+        <v>127</v>
+      </c>
+      <c r="J7">
+        <v>91</v>
+      </c>
+      <c r="K7">
+        <v>197</v>
+      </c>
+      <c r="L7">
+        <v>272</v>
+      </c>
+      <c r="M7">
+        <v>304</v>
+      </c>
+      <c r="N7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2011</v>
-      </c>
-      <c r="B2">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2012</v>
-      </c>
-      <c r="B3">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2014</v>
-      </c>
-      <c r="B5">
-        <v>86</v>
-      </c>
-      <c r="C5">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2015</v>
-      </c>
-      <c r="B6">
-        <v>106</v>
-      </c>
-      <c r="C6">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7">
-        <v>201</v>
-      </c>
-      <c r="C7">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8">
-        <v>272</v>
-      </c>
-      <c r="C8">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9">
-        <v>315</v>
-      </c>
-      <c r="C9">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10">
-        <v>236</v>
-      </c>
-      <c r="C10">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11">
-        <v>336</v>
-      </c>
-      <c r="C11">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12">
-        <v>505</v>
-      </c>
-      <c r="C12">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>519</v>
-      </c>
-      <c r="C13">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>575</v>
-      </c>
-      <c r="C14">
-        <v>1976</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5080,377 +4115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1">
-        <v>2011</v>
-      </c>
-      <c r="C1">
-        <v>2012</v>
-      </c>
-      <c r="D1">
-        <v>2013</v>
-      </c>
-      <c r="E1">
-        <v>2014</v>
-      </c>
-      <c r="F1">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2016</v>
-      </c>
-      <c r="H1">
-        <v>2017</v>
-      </c>
-      <c r="I1">
-        <v>2018</v>
-      </c>
-      <c r="J1">
-        <v>2019</v>
-      </c>
-      <c r="K1">
-        <v>2020</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
-      </c>
-      <c r="M1">
-        <v>2022</v>
-      </c>
-      <c r="N1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>31</v>
-      </c>
-      <c r="M2">
-        <v>36</v>
-      </c>
-      <c r="N2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>94</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>117</v>
-      </c>
-      <c r="G3">
-        <v>204</v>
-      </c>
-      <c r="H3">
-        <v>271</v>
-      </c>
-      <c r="I3">
-        <v>302</v>
-      </c>
-      <c r="J3">
-        <v>172</v>
-      </c>
-      <c r="K3">
-        <v>309</v>
-      </c>
-      <c r="L3">
-        <v>327</v>
-      </c>
-      <c r="M3">
-        <v>339</v>
-      </c>
-      <c r="N3">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>77</v>
-      </c>
-      <c r="E4">
-        <v>102</v>
-      </c>
-      <c r="F4">
-        <v>137</v>
-      </c>
-      <c r="G4">
-        <v>262</v>
-      </c>
-      <c r="H4">
-        <v>400</v>
-      </c>
-      <c r="I4">
-        <v>396</v>
-      </c>
-      <c r="J4">
-        <v>273</v>
-      </c>
-      <c r="K4">
-        <v>413</v>
-      </c>
-      <c r="L4">
-        <v>543</v>
-      </c>
-      <c r="M4">
-        <v>564</v>
-      </c>
-      <c r="N4">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>74</v>
-      </c>
-      <c r="E5">
-        <v>85</v>
-      </c>
-      <c r="F5">
-        <v>130</v>
-      </c>
-      <c r="G5">
-        <v>234</v>
-      </c>
-      <c r="H5">
-        <v>355</v>
-      </c>
-      <c r="I5">
-        <v>346</v>
-      </c>
-      <c r="J5">
-        <v>221</v>
-      </c>
-      <c r="K5">
-        <v>411</v>
-      </c>
-      <c r="L5">
-        <v>504</v>
-      </c>
-      <c r="M5">
-        <v>529</v>
-      </c>
-      <c r="N5">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>54</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>73</v>
-      </c>
-      <c r="F6">
-        <v>110</v>
-      </c>
-      <c r="G6">
-        <v>230</v>
-      </c>
-      <c r="H6">
-        <v>315</v>
-      </c>
-      <c r="I6">
-        <v>364</v>
-      </c>
-      <c r="J6">
-        <v>216</v>
-      </c>
-      <c r="K6">
-        <v>410</v>
-      </c>
-      <c r="L6">
-        <v>595</v>
-      </c>
-      <c r="M6">
-        <v>575</v>
-      </c>
-      <c r="N6">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>121</v>
-      </c>
-      <c r="I7">
-        <v>127</v>
-      </c>
-      <c r="J7">
-        <v>91</v>
-      </c>
-      <c r="K7">
-        <v>197</v>
-      </c>
-      <c r="L7">
-        <v>272</v>
-      </c>
-      <c r="M7">
-        <v>304</v>
-      </c>
-      <c r="N7">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>32</v>
-      </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-      <c r="N8">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5617,7 +4285,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -5631,13 +4299,13 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5645,13 +4313,138 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>397</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5661,121 +4454,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2013</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2014</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2015</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2016</v>
-      </c>
-      <c r="B5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5881,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5931,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5981,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="10">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6031,7 +4713,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6081,7 +4763,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="10">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6131,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="P7" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6181,7 +4863,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6425,13 +5107,13 @@
         <v>34</v>
       </c>
       <c r="N13" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="13">
         <v>33</v>
       </c>
       <c r="P13" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6478,10 +5160,10 @@
         <v>46</v>
       </c>
       <c r="O14" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P14" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6531,7 +5213,7 @@
         <v>58</v>
       </c>
       <c r="P15" s="10">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6581,7 +5263,7 @@
         <v>36</v>
       </c>
       <c r="P16" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6631,7 +5313,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -6739,12 +5421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6851,7 +5533,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="10">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6901,7 +5583,7 @@
         <v>60</v>
       </c>
       <c r="P3" s="10">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -7201,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -7251,7 +5933,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="10">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -7298,10 +5980,10 @@
         <v>92</v>
       </c>
       <c r="O11" s="13">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -7451,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -7601,7 +6283,1380 @@
         <v>11</v>
       </c>
       <c r="P17" s="10">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>102</v>
+      </c>
+      <c r="D30">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>88</v>
+      </c>
+      <c r="D33">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>65</v>
+      </c>
+      <c r="D41">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>83</v>
+      </c>
+      <c r="D44">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2020</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2020</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>2020</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>101</v>
+      </c>
+      <c r="D53">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>146</v>
+      </c>
+      <c r="D54">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>2020</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>142</v>
+      </c>
+      <c r="D55">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>123</v>
+      </c>
+      <c r="D58">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>119</v>
+      </c>
+      <c r="D59">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>133</v>
+      </c>
+      <c r="D60">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>143</v>
+      </c>
+      <c r="D61">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>2021</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>151</v>
+      </c>
+      <c r="D62">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>121</v>
+      </c>
+      <c r="D63">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>142</v>
+      </c>
+      <c r="D64">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>141</v>
+      </c>
+      <c r="D65">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66">
+        <v>148</v>
+      </c>
+      <c r="D66">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>152</v>
+      </c>
+      <c r="D67">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>2021</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>148</v>
+      </c>
+      <c r="D68">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>149</v>
+      </c>
+      <c r="D69">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>176</v>
+      </c>
+      <c r="D70">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>176</v>
+      </c>
+      <c r="D71">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>192</v>
+      </c>
+      <c r="D72">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>193</v>
+      </c>
+      <c r="D73">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>2022</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>179</v>
+      </c>
+      <c r="D74">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75">
+        <v>188</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>143</v>
+      </c>
+      <c r="D76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>139</v>
+      </c>
+      <c r="D77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>142</v>
+      </c>
+      <c r="D78">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>131</v>
+      </c>
+      <c r="D79">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>127</v>
+      </c>
+      <c r="D80">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>128</v>
+      </c>
+      <c r="D81">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>2022</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>142</v>
+      </c>
+      <c r="D82">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>2022</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>148</v>
+      </c>
+      <c r="D83">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>2022</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>140</v>
+      </c>
+      <c r="D84">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>172</v>
+      </c>
+      <c r="D85">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>2023</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>139</v>
+      </c>
+      <c r="D86">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>2023</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87">
+        <v>175</v>
+      </c>
+      <c r="D87">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>2023</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88">
+        <v>192</v>
+      </c>
+      <c r="D88">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>2023</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89">
+        <v>199</v>
+      </c>
+      <c r="D89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>2023</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90">
+        <v>179</v>
+      </c>
+      <c r="D90">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>2023</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>189</v>
+      </c>
+      <c r="D91">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>2023</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>196</v>
+      </c>
+      <c r="D92">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>2023</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93">
+        <v>185</v>
+      </c>
+      <c r="D93">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>2023</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94">
+        <v>160</v>
+      </c>
+      <c r="D94">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>2023</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95">
+        <v>166</v>
+      </c>
+      <c r="D95">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>2023</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>166</v>
+      </c>
+      <c r="D96">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>2023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>170</v>
+      </c>
+      <c r="D97">
+        <v>43.5</v>
       </c>
     </row>
   </sheetData>

--- a/blog/canada_overdoses/data_canada_overdoses.xlsx
+++ b/blog/canada_overdoses/data_canada_overdoses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BC Annual" sheetId="4" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1056,7 +1056,7 @@
         <v>2293</v>
       </c>
       <c r="C28">
-        <v>463.9</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6295,7 +6295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
